--- a/simil2.xlsx
+++ b/simil2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,54 +524,6 @@
       <c r="AE1" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -649,22 +601,6 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -693,51 +629,35 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="W3" t="n">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="X3" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="Y3" t="n">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="Z3" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="AA3" t="n">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="AB3" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="AC3" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="AD3" t="n">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
+        <v>97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -775,107 +695,6 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>39</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>43</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>47</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Puerto DAAS</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
